--- a/biology/Microbiologie/Undellidae/Undellidae.xlsx
+++ b/biology/Microbiologie/Undellidae/Undellidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Undellidae sont une famille de Ciliés de la classe des Oligotrichea et de l’ordre des Choreotrichida.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Undella, dont l'auteur, E. von Daday, n'explique par le sens. Le nom est peut-être dérivé du latin unda « onde d'eau, flot, vague », et du suffixe latin -ella, petite, littéralement « petite onde », en référence à la position qu'a l'organisme dans sa loge (lorica), qui fait penser à une vague en spirale ou une onde aquatique.
 </t>
@@ -542,13 +556,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le genre type Undella est décrit ainsi par Eugen Daday : 
-« Paroi de la coque rigide, chitineuse, transparente, à deux couches, une cavité entre les deux couches ; surface sans corps étrangers, rarement avec sculptures ; arrière fermé. Corps parfois allongé, en forme de poire ou de cloche, parfois court et tubulaire. Pédoncule soit simple, distinctement attaché à l'extrémité postérieure de la gousse, soit représenté par quelques processus. Nombre de plaques de cils adoraux : 20. Surface du corps avec seulement quatre spirales de cils. (La cellule a) deux noyaux et une à deux vacuoles contractiles[1] »
+« Paroi de la coque rigide, chitineuse, transparente, à deux couches, une cavité entre les deux couches ; surface sans corps étrangers, rarement avec sculptures ; arrière fermé. Corps parfois allongé, en forme de poire ou de cloche, parfois court et tubulaire. Pédoncule soit simple, distinctement attaché à l'extrémité postérieure de la gousse, soit représenté par quelques processus. Nombre de plaques de cils adoraux : 20. Surface du corps avec seulement quatre spirales de cils. (La cellule a) deux noyaux et une à deux vacuoles contractiles »
 .
-Dadday précise que l'organisme se fixe à la base de sa lorica (loge) par un pédoncule unique (Undella spiralis), ou plusieurs pédoncules, distinctement attachés à l'extrémité postérieure de la loge : trois chez Undella hyalina, quatre chez Undella Claparèdei[1].</t>
+Dadday précise que l'organisme se fixe à la base de sa lorica (loge) par un pédoncule unique (Undella spiralis), ou plusieurs pédoncules, distinctement attachés à l'extrémité postérieure de la loge : trois chez Undella hyalina, quatre chez Undella Claparèdei.</t>
         </is>
       </c>
     </row>
@@ -576,7 +592,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Undellidae ne contient que des espèces marines.
 </t>
@@ -607,9 +625,11 @@
           <t>Liste des genres et espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (20 octobre 2022)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (20 octobre 2022) :
 Amplectella Kofoid &amp; Campbell, 1929
 Amplectella collaria  (Brandt) Kofoid &amp; Campbell, 1929
 Amplectella monocollaria (Laackmann, 1910) Kofoid &amp; Campbell, 1929
@@ -678,9 +698,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Undellidae Kofoid &amp; Campbell, 1929[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Undellidae Kofoid &amp; Campbell, 1929.
 </t>
         </is>
       </c>
@@ -709,7 +731,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>(de) Jenő Daday, « Monographie der Familie der Tintinnodeen », Mitt. zool. Stn Neapel, t. 7,‎ 1887, p. 473–591, tables 18-21 (lire en ligne ).</t>
         </is>
